--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bot\Documents\UiPath\REF_Proyect_CursoRPA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52442\Documents\UiPath\REF-UIpath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7CFF1-43B9-4B49-891A-03C518B4E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C46636-AC22-4A97-B2AC-84AC4D6454AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>NombreArchivoInsumo</t>
   </si>
   <si>
-    <t>PalabrasClaves.txt</t>
-  </si>
-  <si>
     <t>Nombre del archivo TXT que contiene las palabras claves, nuestro archivo insumo</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Correo de las personas que deben recibir el reporte.</t>
+  </si>
+  <si>
+    <t>palabrasClaves.txt</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,11 +598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -693,43 +693,43 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1735,7 +1735,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2894,11 +2894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -2944,35 +2944,35 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52442\Documents\UiPath\REF-UIpath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C46636-AC22-4A97-B2AC-84AC4D6454AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D5425-9FBF-4E92-ABB6-27F45586ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -221,13 +221,25 @@
   </si>
   <si>
     <t>palabrasClaves.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\52442\Documents\UiPath\REF-UIpath\Data\Output</t>
+  </si>
+  <si>
+    <t>C:\Users\52442\Documents\UiPath\REF-UIpath\Data\Input</t>
+  </si>
+  <si>
+    <t>leonardo.blacker@gmail.com</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +263,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -282,8 +301,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,7 +620,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2895,7 +2916,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2947,7 +2968,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -2958,7 +2982,10 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -2968,8 +2995,11 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -3973,6 +4003,9 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{1339FB8E-6C1E-43F4-BC23-8BA51607F992}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52442\Documents\UiPath\REF-UIpath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D5425-9FBF-4E92-ABB6-27F45586ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817CD606-F4BF-4308-8CEB-46A76CE22458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -223,16 +223,16 @@
     <t>palabrasClaves.txt</t>
   </si>
   <si>
-    <t>C:\Users\52442\Documents\UiPath\REF-UIpath\Data\Output</t>
-  </si>
-  <si>
-    <t>C:\Users\52442\Documents\UiPath\REF-UIpath\Data\Input</t>
-  </si>
-  <si>
     <t>leonardo.blacker@gmail.com</t>
   </si>
   <si>
     <t>prueba</t>
+  </si>
+  <si>
+    <t>\Data\Input</t>
+  </si>
+  <si>
+    <t>\Data\Output</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2915,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2968,10 +2968,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -2982,10 +2982,10 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -2996,10 +2996,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
